--- a/华数杯/dataset/train.xlsx
+++ b/华数杯/dataset/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\modeling\华数杯\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99ADEFDD-592A-4C66-A29B-12B87D4871F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A765C3D7-B9FF-4142-B6E0-28FC9F6D6834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0BAF54AB-D844-4C1B-9F72-E07D6D72336E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编号</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>入睡方式</t>
+  </si>
+  <si>
+    <t>分档等级</t>
   </si>
 </sst>
 </file>
@@ -467,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1A9C43-5156-4634-99D8-B313C618EC1A}">
-  <dimension ref="A1:O391"/>
+  <dimension ref="A1:P391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O391"/>
+      <selection activeCell="P1" sqref="P1:P391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,8 +524,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -568,8 +574,11 @@
       <c r="O2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -615,8 +624,11 @@
       <c r="O3" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -662,8 +674,11 @@
       <c r="O4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -709,8 +724,11 @@
       <c r="O5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -756,8 +774,11 @@
       <c r="O6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -803,8 +824,11 @@
       <c r="O7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -850,8 +874,11 @@
       <c r="O8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -897,8 +924,11 @@
       <c r="O9" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -944,8 +974,11 @@
       <c r="O10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -991,8 +1024,11 @@
       <c r="O11" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1038,8 +1074,11 @@
       <c r="O12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1085,8 +1124,11 @@
       <c r="O13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1132,8 +1174,11 @@
       <c r="O14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1179,8 +1224,11 @@
       <c r="O15" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1226,8 +1274,11 @@
       <c r="O16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1273,8 +1324,11 @@
       <c r="O17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1320,8 +1374,11 @@
       <c r="O18" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1367,8 +1424,11 @@
       <c r="O19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1414,8 +1474,11 @@
       <c r="O20" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1461,8 +1524,11 @@
       <c r="O21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1508,8 +1574,11 @@
       <c r="O22" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1555,8 +1624,11 @@
       <c r="O23" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1602,8 +1674,11 @@
       <c r="O24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1649,8 +1724,11 @@
       <c r="O25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1696,8 +1774,11 @@
       <c r="O26" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1743,8 +1824,11 @@
       <c r="O27" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1790,8 +1874,11 @@
       <c r="O28" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1837,8 +1924,11 @@
       <c r="O29" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1884,8 +1974,11 @@
       <c r="O30" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1931,8 +2024,11 @@
       <c r="O31" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1978,8 +2074,11 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2025,8 +2124,11 @@
       <c r="O33" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2072,8 +2174,11 @@
       <c r="O34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2119,8 +2224,11 @@
       <c r="O35" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2166,8 +2274,11 @@
       <c r="O36" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2213,8 +2324,11 @@
       <c r="O37" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2260,8 +2374,11 @@
       <c r="O38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2307,8 +2424,11 @@
       <c r="O39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2354,8 +2474,11 @@
       <c r="O40" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2401,8 +2524,11 @@
       <c r="O41" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2448,8 +2574,11 @@
       <c r="O42" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2495,8 +2624,11 @@
       <c r="O43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2542,8 +2674,11 @@
       <c r="O44" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2589,8 +2724,11 @@
       <c r="O45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2636,8 +2774,11 @@
       <c r="O46" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2683,8 +2824,11 @@
       <c r="O47" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2730,8 +2874,11 @@
       <c r="O48" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2777,8 +2924,11 @@
       <c r="O49" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2824,8 +2974,11 @@
       <c r="O50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2871,8 +3024,11 @@
       <c r="O51" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2918,8 +3074,11 @@
       <c r="O52" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2965,8 +3124,11 @@
       <c r="O53" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3012,8 +3174,11 @@
       <c r="O54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3059,8 +3224,11 @@
       <c r="O55" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3106,8 +3274,11 @@
       <c r="O56" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3153,8 +3324,11 @@
       <c r="O57" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3200,8 +3374,11 @@
       <c r="O58" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3247,8 +3424,11 @@
       <c r="O59" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3294,8 +3474,11 @@
       <c r="O60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3341,8 +3524,11 @@
       <c r="O61" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3388,8 +3574,11 @@
       <c r="O62" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3435,8 +3624,11 @@
       <c r="O63" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3482,8 +3674,11 @@
       <c r="O64" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3529,8 +3724,11 @@
       <c r="O65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3576,8 +3774,11 @@
       <c r="O66" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3623,8 +3824,11 @@
       <c r="O67" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3670,8 +3874,11 @@
       <c r="O68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3717,8 +3924,11 @@
       <c r="O69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3764,8 +3974,11 @@
       <c r="O70" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3811,8 +4024,11 @@
       <c r="O71" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3858,8 +4074,11 @@
       <c r="O72" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3905,8 +4124,11 @@
       <c r="O73" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3952,8 +4174,11 @@
       <c r="O74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3999,8 +4224,11 @@
       <c r="O75" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4046,8 +4274,11 @@
       <c r="O76" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4093,8 +4324,11 @@
       <c r="O77" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4140,8 +4374,11 @@
       <c r="O78" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4187,8 +4424,11 @@
       <c r="O79" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4234,8 +4474,11 @@
       <c r="O80" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4281,8 +4524,11 @@
       <c r="O81" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4328,8 +4574,11 @@
       <c r="O82" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4375,8 +4624,11 @@
       <c r="O83" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4422,8 +4674,11 @@
       <c r="O84" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4469,8 +4724,11 @@
       <c r="O85" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4516,8 +4774,11 @@
       <c r="O86" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4563,8 +4824,11 @@
       <c r="O87" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4610,8 +4874,11 @@
       <c r="O88" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4657,8 +4924,11 @@
       <c r="O89" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4704,8 +4974,11 @@
       <c r="O90" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4751,8 +5024,11 @@
       <c r="O91" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4798,8 +5074,11 @@
       <c r="O92" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4845,8 +5124,11 @@
       <c r="O93" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4892,8 +5174,11 @@
       <c r="O94" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4939,8 +5224,11 @@
       <c r="O95" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4986,8 +5274,11 @@
       <c r="O96" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -5033,8 +5324,11 @@
       <c r="O97" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5080,8 +5374,11 @@
       <c r="O98" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5127,8 +5424,11 @@
       <c r="O99" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5174,8 +5474,11 @@
       <c r="O100" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5221,8 +5524,11 @@
       <c r="O101" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5268,8 +5574,11 @@
       <c r="O102" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5315,8 +5624,11 @@
       <c r="O103" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5362,8 +5674,11 @@
       <c r="O104" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5409,8 +5724,11 @@
       <c r="O105" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5456,8 +5774,11 @@
       <c r="O106" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5503,8 +5824,11 @@
       <c r="O107" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5550,8 +5874,11 @@
       <c r="O108" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5597,8 +5924,11 @@
       <c r="O109" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5644,8 +5974,11 @@
       <c r="O110" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5691,8 +6024,11 @@
       <c r="O111" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5738,8 +6074,11 @@
       <c r="O112" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5785,8 +6124,11 @@
       <c r="O113" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5832,8 +6174,11 @@
       <c r="O114" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5879,8 +6224,11 @@
       <c r="O115" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5926,8 +6274,11 @@
       <c r="O116" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -5973,8 +6324,11 @@
       <c r="O117" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -6020,8 +6374,11 @@
       <c r="O118" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -6067,8 +6424,11 @@
       <c r="O119" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -6114,8 +6474,11 @@
       <c r="O120" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -6161,8 +6524,11 @@
       <c r="O121" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -6208,8 +6574,11 @@
       <c r="O122" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -6255,8 +6624,11 @@
       <c r="O123" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -6302,8 +6674,11 @@
       <c r="O124" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -6349,8 +6724,11 @@
       <c r="O125" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6396,8 +6774,11 @@
       <c r="O126" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -6443,8 +6824,11 @@
       <c r="O127" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -6490,8 +6874,11 @@
       <c r="O128" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -6537,8 +6924,11 @@
       <c r="O129" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6584,8 +6974,11 @@
       <c r="O130" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6631,8 +7024,11 @@
       <c r="O131" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6678,8 +7074,11 @@
       <c r="O132" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6725,8 +7124,11 @@
       <c r="O133" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -6772,8 +7174,11 @@
       <c r="O134" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6819,8 +7224,11 @@
       <c r="O135" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6866,8 +7274,11 @@
       <c r="O136" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -6913,8 +7324,11 @@
       <c r="O137" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -6960,8 +7374,11 @@
       <c r="O138" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -7007,8 +7424,11 @@
       <c r="O139" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -7054,8 +7474,11 @@
       <c r="O140" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -7101,8 +7524,11 @@
       <c r="O141" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -7148,8 +7574,11 @@
       <c r="O142" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -7195,8 +7624,11 @@
       <c r="O143" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -7242,8 +7674,11 @@
       <c r="O144" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -7289,8 +7724,11 @@
       <c r="O145" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -7336,8 +7774,11 @@
       <c r="O146" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -7383,8 +7824,11 @@
       <c r="O147" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -7430,8 +7874,11 @@
       <c r="O148" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -7477,8 +7924,11 @@
       <c r="O149" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7524,8 +7974,11 @@
       <c r="O150" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -7571,8 +8024,11 @@
       <c r="O151" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7618,8 +8074,11 @@
       <c r="O152" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -7665,8 +8124,11 @@
       <c r="O153" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -7712,8 +8174,11 @@
       <c r="O154" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -7759,8 +8224,11 @@
       <c r="O155" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -7806,8 +8274,11 @@
       <c r="O156" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -7853,8 +8324,11 @@
       <c r="O157" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -7900,8 +8374,11 @@
       <c r="O158" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -7947,8 +8424,11 @@
       <c r="O159" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -7994,8 +8474,11 @@
       <c r="O160" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8041,8 +8524,11 @@
       <c r="O161" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8088,8 +8574,11 @@
       <c r="O162" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8135,8 +8624,11 @@
       <c r="O163" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8182,8 +8674,11 @@
       <c r="O164" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8229,8 +8724,11 @@
       <c r="O165" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -8276,8 +8774,11 @@
       <c r="O166" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -8323,8 +8824,11 @@
       <c r="O167" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -8370,8 +8874,11 @@
       <c r="O168" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -8417,8 +8924,11 @@
       <c r="O169" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -8464,8 +8974,11 @@
       <c r="O170" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -8511,8 +9024,11 @@
       <c r="O171" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -8558,8 +9074,11 @@
       <c r="O172" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -8605,8 +9124,11 @@
       <c r="O173" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -8652,8 +9174,11 @@
       <c r="O174" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -8699,8 +9224,11 @@
       <c r="O175" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -8746,8 +9274,11 @@
       <c r="O176" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -8793,8 +9324,11 @@
       <c r="O177" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -8840,8 +9374,11 @@
       <c r="O178" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -8887,8 +9424,11 @@
       <c r="O179" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -8934,8 +9474,11 @@
       <c r="O180" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -8981,8 +9524,11 @@
       <c r="O181" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9028,8 +9574,11 @@
       <c r="O182" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9075,8 +9624,11 @@
       <c r="O183" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9122,8 +9674,11 @@
       <c r="O184" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9169,8 +9724,11 @@
       <c r="O185" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9216,8 +9774,11 @@
       <c r="O186" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9263,8 +9824,11 @@
       <c r="O187" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9310,8 +9874,11 @@
       <c r="O188" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9357,8 +9924,11 @@
       <c r="O189" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9404,8 +9974,11 @@
       <c r="O190" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9451,8 +10024,11 @@
       <c r="O191" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -9498,8 +10074,11 @@
       <c r="O192" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9545,8 +10124,11 @@
       <c r="O193" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9592,8 +10174,11 @@
       <c r="O194" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9639,8 +10224,11 @@
       <c r="O195" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9686,8 +10274,11 @@
       <c r="O196" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9733,8 +10324,11 @@
       <c r="O197" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9780,8 +10374,11 @@
       <c r="O198" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9827,8 +10424,11 @@
       <c r="O199" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9874,8 +10474,11 @@
       <c r="O200" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -9921,8 +10524,11 @@
       <c r="O201" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -9968,8 +10574,11 @@
       <c r="O202" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -10015,8 +10624,11 @@
       <c r="O203" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -10062,8 +10674,11 @@
       <c r="O204" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -10109,8 +10724,11 @@
       <c r="O205" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -10156,8 +10774,11 @@
       <c r="O206" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -10203,8 +10824,11 @@
       <c r="O207" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -10250,8 +10874,11 @@
       <c r="O208" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -10297,8 +10924,11 @@
       <c r="O209" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -10344,8 +10974,11 @@
       <c r="O210" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -10391,8 +11024,11 @@
       <c r="O211" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -10438,8 +11074,11 @@
       <c r="O212" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -10485,8 +11124,11 @@
       <c r="O213" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -10532,8 +11174,11 @@
       <c r="O214" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -10579,8 +11224,11 @@
       <c r="O215" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -10626,8 +11274,11 @@
       <c r="O216" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -10673,8 +11324,11 @@
       <c r="O217" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -10720,8 +11374,11 @@
       <c r="O218" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -10767,8 +11424,11 @@
       <c r="O219" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -10814,8 +11474,11 @@
       <c r="O220" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -10861,8 +11524,11 @@
       <c r="O221" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -10908,8 +11574,11 @@
       <c r="O222" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -10955,8 +11624,11 @@
       <c r="O223" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -11002,8 +11674,11 @@
       <c r="O224" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -11049,8 +11724,11 @@
       <c r="O225" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -11096,8 +11774,11 @@
       <c r="O226" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -11143,8 +11824,11 @@
       <c r="O227" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -11190,8 +11874,11 @@
       <c r="O228" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -11237,8 +11924,11 @@
       <c r="O229" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -11284,8 +11974,11 @@
       <c r="O230" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -11331,8 +12024,11 @@
       <c r="O231" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -11378,8 +12074,11 @@
       <c r="O232" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -11425,8 +12124,11 @@
       <c r="O233" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -11472,8 +12174,11 @@
       <c r="O234" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -11519,8 +12224,11 @@
       <c r="O235" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -11566,8 +12274,11 @@
       <c r="O236" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -11613,8 +12324,11 @@
       <c r="O237" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -11660,8 +12374,11 @@
       <c r="O238" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -11707,8 +12424,11 @@
       <c r="O239" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -11754,8 +12474,11 @@
       <c r="O240" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -11801,8 +12524,11 @@
       <c r="O241" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -11848,8 +12574,11 @@
       <c r="O242" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -11895,8 +12624,11 @@
       <c r="O243" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -11942,8 +12674,11 @@
       <c r="O244" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -11989,8 +12724,11 @@
       <c r="O245" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -12036,8 +12774,11 @@
       <c r="O246" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -12083,8 +12824,11 @@
       <c r="O247" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -12130,8 +12874,11 @@
       <c r="O248" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -12177,8 +12924,11 @@
       <c r="O249" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -12224,8 +12974,11 @@
       <c r="O250" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -12271,8 +13024,11 @@
       <c r="O251" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -12318,8 +13074,11 @@
       <c r="O252" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -12365,8 +13124,11 @@
       <c r="O253" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -12412,8 +13174,11 @@
       <c r="O254" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -12459,8 +13224,11 @@
       <c r="O255" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -12506,8 +13274,11 @@
       <c r="O256" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -12553,8 +13324,11 @@
       <c r="O257" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -12600,8 +13374,11 @@
       <c r="O258" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -12647,8 +13424,11 @@
       <c r="O259" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -12694,8 +13474,11 @@
       <c r="O260" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -12741,8 +13524,11 @@
       <c r="O261" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -12788,8 +13574,11 @@
       <c r="O262" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -12835,8 +13624,11 @@
       <c r="O263" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -12882,8 +13674,11 @@
       <c r="O264" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -12929,8 +13724,11 @@
       <c r="O265" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -12976,8 +13774,11 @@
       <c r="O266" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -13023,8 +13824,11 @@
       <c r="O267" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -13070,8 +13874,11 @@
       <c r="O268" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -13117,8 +13924,11 @@
       <c r="O269" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -13164,8 +13974,11 @@
       <c r="O270" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -13211,8 +14024,11 @@
       <c r="O271" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -13258,8 +14074,11 @@
       <c r="O272" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -13305,8 +14124,11 @@
       <c r="O273" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -13352,8 +14174,11 @@
       <c r="O274" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -13399,8 +14224,11 @@
       <c r="O275" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -13446,8 +14274,11 @@
       <c r="O276" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -13493,8 +14324,11 @@
       <c r="O277" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -13540,8 +14374,11 @@
       <c r="O278" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -13587,8 +14424,11 @@
       <c r="O279" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -13634,8 +14474,11 @@
       <c r="O280" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -13681,8 +14524,11 @@
       <c r="O281" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -13728,8 +14574,11 @@
       <c r="O282" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -13775,8 +14624,11 @@
       <c r="O283" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -13822,8 +14674,11 @@
       <c r="O284" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -13869,8 +14724,11 @@
       <c r="O285" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -13916,8 +14774,11 @@
       <c r="O286" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -13963,8 +14824,11 @@
       <c r="O287" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -14010,8 +14874,11 @@
       <c r="O288" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -14057,8 +14924,11 @@
       <c r="O289" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -14104,8 +14974,11 @@
       <c r="O290" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -14151,8 +15024,11 @@
       <c r="O291" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -14198,8 +15074,11 @@
       <c r="O292" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -14245,8 +15124,11 @@
       <c r="O293" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -14292,8 +15174,11 @@
       <c r="O294" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -14339,8 +15224,11 @@
       <c r="O295" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -14386,8 +15274,11 @@
       <c r="O296" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -14433,8 +15324,11 @@
       <c r="O297" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -14480,8 +15374,11 @@
       <c r="O298" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -14527,8 +15424,11 @@
       <c r="O299" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -14574,8 +15474,11 @@
       <c r="O300" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -14621,8 +15524,11 @@
       <c r="O301" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -14668,8 +15574,11 @@
       <c r="O302" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -14715,8 +15624,11 @@
       <c r="O303" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -14762,8 +15674,11 @@
       <c r="O304" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -14809,8 +15724,11 @@
       <c r="O305" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -14856,8 +15774,11 @@
       <c r="O306" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -14903,8 +15824,11 @@
       <c r="O307" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -14950,8 +15874,11 @@
       <c r="O308" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -14997,8 +15924,11 @@
       <c r="O309" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -15044,8 +15974,11 @@
       <c r="O310" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -15091,8 +16024,11 @@
       <c r="O311" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -15138,8 +16074,11 @@
       <c r="O312" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -15185,8 +16124,11 @@
       <c r="O313" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -15232,8 +16174,11 @@
       <c r="O314" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -15279,8 +16224,11 @@
       <c r="O315" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -15326,8 +16274,11 @@
       <c r="O316" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -15373,8 +16324,11 @@
       <c r="O317" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -15420,8 +16374,11 @@
       <c r="O318" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -15467,8 +16424,11 @@
       <c r="O319" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -15514,8 +16474,11 @@
       <c r="O320" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -15561,8 +16524,11 @@
       <c r="O321" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -15608,8 +16574,11 @@
       <c r="O322" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -15655,8 +16624,11 @@
       <c r="O323" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -15702,8 +16674,11 @@
       <c r="O324" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -15749,8 +16724,11 @@
       <c r="O325" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -15796,8 +16774,11 @@
       <c r="O326" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -15843,8 +16824,11 @@
       <c r="O327" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -15890,8 +16874,11 @@
       <c r="O328" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -15937,8 +16924,11 @@
       <c r="O329" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -15984,8 +16974,11 @@
       <c r="O330" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -16031,8 +17024,11 @@
       <c r="O331" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -16078,8 +17074,11 @@
       <c r="O332" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -16125,8 +17124,11 @@
       <c r="O333" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -16172,8 +17174,11 @@
       <c r="O334" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -16219,8 +17224,11 @@
       <c r="O335" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -16266,8 +17274,11 @@
       <c r="O336" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -16313,8 +17324,11 @@
       <c r="O337" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -16360,8 +17374,11 @@
       <c r="O338" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -16407,8 +17424,11 @@
       <c r="O339" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -16454,8 +17474,11 @@
       <c r="O340" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -16501,8 +17524,11 @@
       <c r="O341" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -16548,8 +17574,11 @@
       <c r="O342" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -16595,8 +17624,11 @@
       <c r="O343" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -16642,8 +17674,11 @@
       <c r="O344" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -16689,8 +17724,11 @@
       <c r="O345" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -16736,8 +17774,11 @@
       <c r="O346" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -16783,8 +17824,11 @@
       <c r="O347" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -16830,8 +17874,11 @@
       <c r="O348" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -16877,8 +17924,11 @@
       <c r="O349" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -16924,8 +17974,11 @@
       <c r="O350" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -16971,8 +18024,11 @@
       <c r="O351" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -17018,8 +18074,11 @@
       <c r="O352" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -17065,8 +18124,11 @@
       <c r="O353" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -17112,8 +18174,11 @@
       <c r="O354" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -17159,8 +18224,11 @@
       <c r="O355" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -17206,8 +18274,11 @@
       <c r="O356" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -17253,8 +18324,11 @@
       <c r="O357" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -17300,8 +18374,11 @@
       <c r="O358" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -17347,8 +18424,11 @@
       <c r="O359" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -17394,8 +18474,11 @@
       <c r="O360" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -17441,8 +18524,11 @@
       <c r="O361" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -17488,8 +18574,11 @@
       <c r="O362" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -17535,8 +18624,11 @@
       <c r="O363" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -17582,8 +18674,11 @@
       <c r="O364" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -17629,8 +18724,11 @@
       <c r="O365" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -17676,8 +18774,11 @@
       <c r="O366" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -17723,8 +18824,11 @@
       <c r="O367" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -17770,8 +18874,11 @@
       <c r="O368" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -17817,8 +18924,11 @@
       <c r="O369" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -17864,8 +18974,11 @@
       <c r="O370" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -17911,8 +19024,11 @@
       <c r="O371" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -17958,8 +19074,11 @@
       <c r="O372" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -18005,8 +19124,11 @@
       <c r="O373" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -18052,8 +19174,11 @@
       <c r="O374" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -18099,8 +19224,11 @@
       <c r="O375" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -18146,8 +19274,11 @@
       <c r="O376" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -18193,8 +19324,11 @@
       <c r="O377" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -18240,8 +19374,11 @@
       <c r="O378" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -18287,8 +19424,11 @@
       <c r="O379" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -18334,8 +19474,11 @@
       <c r="O380" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -18381,8 +19524,11 @@
       <c r="O381" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -18428,8 +19574,11 @@
       <c r="O382" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P382">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -18475,8 +19624,11 @@
       <c r="O383" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -18522,8 +19674,11 @@
       <c r="O384" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -18569,8 +19724,11 @@
       <c r="O385" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -18616,8 +19774,11 @@
       <c r="O386" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -18663,8 +19824,11 @@
       <c r="O387" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -18710,8 +19874,11 @@
       <c r="O388" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -18757,8 +19924,11 @@
       <c r="O389" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -18804,8 +19974,11 @@
       <c r="O390" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -18850,6 +20023,9 @@
       </c>
       <c r="O391" s="2">
         <v>4</v>
+      </c>
+      <c r="P391">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
